--- a/biology/Botanique/Lucile_Boiteau-Allorge/Lucile_Boiteau-Allorge.xlsx
+++ b/biology/Botanique/Lucile_Boiteau-Allorge/Lucile_Boiteau-Allorge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lucile Boiteau-Allorge est une botaniste française née le 25 octobre 1937 à Antananarivo (Madagascar) et morte le 31 août 2023 à Saint-Rémy-lès-Chevreuse.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née le 25 octobre 1937 à Antananarivo[1], Lucile Allorge est la fille de Pierre Boiteau, fondateur et directeur du Parc botanique et zoologique de Tsimbazaza. Elle est titulaire d'un doctorat ès sciences botaniques[2],[3].
-Elle est membre de nombreuses sociétés savantes, notamment de la Société botanique de France, qui lui décerne le prix de Coincy en 2011, et de la Société des explorateurs français[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née le 25 octobre 1937 à Antananarivo, Lucile Allorge est la fille de Pierre Boiteau, fondateur et directeur du Parc botanique et zoologique de Tsimbazaza. Elle est titulaire d'un doctorat ès sciences botaniques,.
+Elle est membre de nombreuses sociétés savantes, notamment de la Société botanique de France, qui lui décerne le prix de Coincy en 2011, et de la Société des explorateurs français.
 Elle entre au CNRS en 1968. Attachée au Muséum national d'histoire naturelle (MNHN), elle effectue de nombreuses missions en Guyane française, à Madagascar, aux Philippines, au Venezuela et en Malaisie.
-Lucile Allorge a publié plus d'une centaine d'articles scientifiques. Elle est chevalier de l'Ordre national du mérite malgache[5]. En 2007 elle est élue à l'Académie des sciences d'outre-mer comme membre correspondant de la 4e section[2].
-Elle meurt le 31 août 2023 à Saint-Rémy-lès-Chevreuse[6] à l'âge de 85 ans[7].
+Lucile Allorge a publié plus d'une centaine d'articles scientifiques. Elle est chevalier de l'Ordre national du mérite malgache. En 2007 elle est élue à l'Académie des sciences d'outre-mer comme membre correspondant de la 4e section.
+Elle meurt le 31 août 2023 à Saint-Rémy-lès-Chevreuse à l'âge de 85 ans.
 </t>
         </is>
       </c>
@@ -546,11 +560,13 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liliaceae Aloe lucile-allorgeae Rauh
 Crassulaceae Kalanchoe lucile-allorgei Rauh &amp; Mangeldorf
-Buthidae Tityobuthus lucileae[8]</t>
+Buthidae Tityobuthus lucileae</t>
         </is>
       </c>
     </row>
@@ -580,8 +596,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monographies et livres
-Lucile Allorge Plantes de Madagascar : atlas. Plaissan :  MUSEO (1re éd. 2008), 220 p., 2017  (ISBN 978-2-37375-025-6 et 2-37375-025-2)
+          <t>Monographies et livres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lucile Allorge Plantes de Madagascar : atlas. Plaissan :  MUSEO (1re éd. 2008), 220 p., 2017  (ISBN 978-2-37375-025-6 et 2-37375-025-2)
 Lucile Allorge (collaboratrice) Je sais utiliser mes huiles essentielles. Paris : Rue de l’échiquier, 2016
 Ouvrage collectif sous la direction de Lucile Allorge et Thomas Haevermans, Namoroka : mission à Madagascar. Toulouse : Privat ; Paris : Muséum National d'Histoire Naturelle, 2015
 Yves Delange, Yves-Marie Allain, Françoise-Hélène Jourda, Lucile Allorge Les serres : le génie architectural au service des plantes. Arles : Actes Sud, 2013.
@@ -595,13 +616,7 @@
 Pierre Boiteau, Lucile Allorge-Boiteau Kalanchoe (Crassulacées) de Madagascar : systématique, écophysiologie et phytochimie. Paris : Karthala, 1995
 Pierre Boiteau et Lucile Allorge-Boiteau Plantes médicinales de Madagascar. Paris : Karthala, 1993
 Direction scientifique de la réédition de l'illustration des genres par Jean-Baptiste de Lamarck, 1000 planches, 10 volumes. Paris : Éditions Amarca, 1989. Traduction en espagnol par Liber Ediciones, 1995.
-Lucile Allorge Monographie des Apocynacées - Tabernaemontanoïdées américaines. Muséum national d'Histoire naturelle, Paris, 216p. (Mémoires du Muséum national d'Histoire naturelle, Sér. B – Botanique (1950-1992) ; 30). 1985.
-Préface
-Isabelle Pachioni Aromatherapia : tout sur les huiles essentielles, les connaître, les utiliser, beauté, santé, bien-être : 500 recettes pratiques pour tous. Paris : Aroma Thera, 2014
-Raymond Decary (extraits choisis par sa fille Yvonne) Madagascar, passion d’un naturaliste pages 11 à 15. Éditions Alzieu, BP 232, 38522 Saint Égrève Cedex. 2012.  (ISBN 978-2-35022-112-0)
-Expositions
-Passions botaniques : naturalistes voyageurs au temps des grandes découvertes : exposition, Ploézal, Domaine départemental de la Roche Jagu, 7 juin-9 novembre 2008. Rennes : Ouest-France, 2008
-</t>
+Lucile Allorge Monographie des Apocynacées - Tabernaemontanoïdées américaines. Muséum national d'Histoire naturelle, Paris, 216p. (Mémoires du Muséum national d'Histoire naturelle, Sér. B – Botanique (1950-1992) ; 30). 1985.</t>
         </is>
       </c>
     </row>
@@ -626,10 +641,86 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Préface</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Isabelle Pachioni Aromatherapia : tout sur les huiles essentielles, les connaître, les utiliser, beauté, santé, bien-être : 500 recettes pratiques pour tous. Paris : Aroma Thera, 2014
+Raymond Decary (extraits choisis par sa fille Yvonne) Madagascar, passion d’un naturaliste pages 11 à 15. Éditions Alzieu, BP 232, 38522 Saint Égrève Cedex. 2012.  (ISBN 978-2-35022-112-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lucile_Boiteau-Allorge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lucile_Boiteau-Allorge</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Passions botaniques : naturalistes voyageurs au temps des grandes découvertes : exposition, Ploézal, Domaine départemental de la Roche Jagu, 7 juin-9 novembre 2008. Rennes : Ouest-France, 2008
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lucile_Boiteau-Allorge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lucile_Boiteau-Allorge</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>« Sur la piste de Wallace » expédition aux Philippines en janvier 2000 sous la direction de Patrice Franceschi. DVD.
 « Les sortilèges de l’île rouge » Madagascar, Ankarana, en novembre 2001, réalisateur Alain Tixier, Ushuaïa Nicolas Hulot, DVD.
